--- a/biology/Zoologie/Conus_donnae/Conus_donnae.xlsx
+++ b/biology/Zoologie/Conus_donnae/Conus_donnae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus donnae est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 19 mm et 27 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large des Bahamas.
 </t>
@@ -576,14 +592,88 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus donnae a été décrite pour la première fois en 1998 par le malacologiste américain Edward James Petuch (d)[1] dans la publication intitulée « La Conchiglia »[2],[3].
-Synonymes
-Conus (Dauciconus) donnae Petuch, 1998 · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus donnae a été décrite pour la première fois en 1998 par le malacologiste américain Edward James Petuch (d) dans la publication intitulée « La Conchiglia »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_donnae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_donnae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Dauciconus) donnae Petuch, 1998 · appellation alternative
 Conus (Purpuriconus) donnae Petuch, 1998 · non accepté
-Purpuriconus donnae (Petuch, 1998) · non accepté
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus donnae dans les principales bases sont les suivants :
+Purpuriconus donnae (Petuch, 1998) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_donnae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_donnae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus donnae dans les principales bases sont les suivants :
 CoL : XXB2 - GBIF : 6510803 - iNaturalist : 900597 - IRMNG : 11705904 - WoRMS : 429050
 </t>
         </is>
